--- a/天然气/eta/天然气TTF连1价格_月度数据.xlsx
+++ b/天然气/eta/天然气TTF连1价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>27.38</v>
+        <v>29.01</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.01</v>
+        <v>31.61</v>
       </c>
       <c r="C3" t="n">
-        <v>32.04</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="4">
